--- a/rider/weekly/2016_44.xlsx
+++ b/rider/weekly/2016_44.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>296</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>254</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>264</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>218</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>296</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>254</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>264</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>248.5</c:v>
+                  <c:v>257.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>111.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="D2">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="E2">
         <v>88.34</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D3">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E3">
         <v>88.5</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D4">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="E4">
         <v>88.66</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D5">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E5">
         <v>88.81999999999999</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="D6">
-        <v>248.5</v>
+        <v>257.5</v>
       </c>
       <c r="E6">
         <v>88.98</v>
@@ -895,7 +895,7 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D7">
         <v>111.5</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8">
         <v>89.31</v>
